--- a/Peliculas.xlsx
+++ b/Peliculas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\Visual Studio 2017\Projects\TPFINAL_Craicnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD3AB6AB-4B04-4A5C-8840-84859C17D28B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11BF9A0-E0E9-4186-8714-24A4A35B62D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="11400" xr2:uid="{92B69471-29E9-4ABA-B2BA-39A2857B8C54}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="384">
   <si>
     <t>Nombre</t>
   </si>
@@ -1177,6 +1177,12 @@
   </si>
   <si>
     <t>Brad Pitt, Bryan Cranston, Mireille Enos, James Badge Dale, Elyes Gabel</t>
+  </si>
+  <si>
+    <t>Puntaje</t>
+  </si>
+  <si>
+    <t>Precio</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1203,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1210,14 +1216,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1234,32 +1234,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1574,2397 +1558,3380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521ACE5D-A237-47D3-9C9E-7CFC76E0F688}">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="150.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
+        <f ca="1">RANDBETWEEN(25,125)</f>
+        <v>60</v>
+      </c>
+      <c r="E2" s="1">
         <v>2006</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(25,125)</f>
+        <v>87</v>
+      </c>
+      <c r="E3" s="1">
         <v>2008</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="E4" s="1">
         <v>2012</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>8221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E5" s="1">
         <v>2015</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E6" s="1">
         <v>2009</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="E7" s="1">
         <v>2007</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>11917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E8" s="1">
         <v>1999</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+      <c r="G8" s="1">
+        <v>6339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="E9" s="1">
         <v>1992</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="E10" s="1">
         <v>2006</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="E11" s="1">
         <v>1997</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="E12" s="1">
         <v>1982</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>11738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="E13" s="1">
         <v>1979</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>14042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E14" s="1">
         <v>2012</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E15" s="1">
         <v>2009</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>11255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="E16" s="1">
         <v>2008</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>10203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="E17" s="1">
         <v>2005</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E18" s="1">
         <v>2003</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E19" s="1">
         <v>2010</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>7266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E20" s="1">
         <v>2006</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E21" s="1">
         <v>2011</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>11936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E22" s="1">
         <v>1942</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>13928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="E23" s="1">
         <v>1976</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E24" s="1">
         <v>1950</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="E25" s="1">
         <v>2003</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E26" s="1">
         <v>2008</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E27" s="1">
         <v>2006</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>12659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E28" s="1">
         <v>1997</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E29" s="1">
         <v>2003</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E30" s="1">
         <v>1982</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>12127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="E31" s="1">
         <v>2008</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>10709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E32" s="1">
         <v>2013</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <v>8245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E33" s="1">
         <v>1996</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <v>14768</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E34" s="1">
         <v>2005</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <v>14975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E35" s="1">
         <v>2007</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <v>13258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E36" s="1">
         <v>1996</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E37" s="1">
         <v>2001</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E38" s="1">
         <v>2007</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E39" s="1">
         <v>2002</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>12746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E40" s="1">
         <v>2007</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>8232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E41" s="1">
         <v>2009</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E42" s="1">
         <v>2013</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E43" s="1">
         <v>2008</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>11394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E44" s="1">
         <v>2006</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>12530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E45" s="1">
         <v>2001</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>13768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E46" s="1">
         <v>2002</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="E47" s="1">
         <v>2004</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="E48" s="1">
         <v>2005</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E49" s="1">
         <v>2007</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <v>9412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="E50" s="1">
         <v>2009</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <v>10470</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E51" s="1">
         <v>2010</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51" s="1">
+        <v>6874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E52" s="1">
         <v>2010</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <v>13446</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="E53" s="1">
         <v>2007</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53" s="1">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="E54" s="1">
         <v>2004</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54" s="1">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="E55" s="1">
         <v>2002</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55" s="1">
+        <v>14509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E56" s="1">
         <v>2006</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56" s="1">
+        <v>6835</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E57" s="1">
         <v>2009</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" s="1">
+        <v>9717</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E58" s="1">
         <v>2012</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58" s="1">
+        <v>11902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E59" s="1">
         <v>2014</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59" s="1">
+        <v>10811</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="E60" s="1">
         <v>2008</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60" s="1">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E61" s="1">
         <v>2003</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="F61" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61" s="1">
+        <v>12529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E62" s="1">
         <v>2004</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62" s="1">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E63" s="1">
         <v>2008</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63" s="1">
+        <v>8908</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E64" s="1">
         <v>2006</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64" s="1">
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E65" s="1">
         <v>2013</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="E66" s="1">
         <v>2001</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66" s="1">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="2">
+        <f t="shared" ref="D67:D130" ca="1" si="1">RANDBETWEEN(25,125)</f>
+        <v>36</v>
+      </c>
+      <c r="E67" s="1">
         <v>2002</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67" s="1">
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="E68" s="1">
         <v>2003</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="F68" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68" s="1">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="E69" s="1">
         <v>1999</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69" s="1">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E70" s="1">
         <v>2003</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="F70" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G70" s="1">
+        <v>6847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E71" s="1">
         <v>2003</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G71" s="1">
+        <v>12972</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="E72" s="1">
         <v>1964</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="F72" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G72" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E73" s="1">
         <v>2008</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G73" s="1">
+        <v>7997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E74" s="1">
         <v>1996</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="F74" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G74" s="1">
+        <v>8871</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E75" s="1">
         <v>2000</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G75" s="1">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E76" s="1">
         <v>2006</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="F76" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G76" s="1">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="E77" s="1">
         <v>2003</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="F77" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G77" s="1">
+        <v>7345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E78" s="1">
         <v>2001</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="F78" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78" s="1">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="E79" s="1">
         <v>2013</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="F79" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79" s="1">
+        <v>12866</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="E80" s="1">
         <v>2005</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="F80" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80" s="1">
+        <v>9618</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="E81" s="1">
         <v>1998</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="F81" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81" s="1">
+        <v>9934</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="E82" s="1">
         <v>2012</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="F82" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G82" s="1">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E83" s="1">
         <v>2009</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="F83" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83" s="1">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E84" s="1">
         <v>2013</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="F84" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84" s="1">
+        <v>12673</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="E85" s="1">
         <v>2001</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="F85" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G85" s="1">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="E86" s="1">
         <v>2004</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="F86" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86" s="1">
+        <v>7883</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E87" s="1">
         <v>2007</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="F87" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87" s="1">
+        <v>14245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E88" s="1">
         <v>2007</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="F88" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88" s="1">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="E89" s="1">
         <v>2001</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="F89" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89" s="1">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="E90" s="1">
         <v>2012</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="F90" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90" s="1">
+        <v>11714</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E91" s="1">
         <v>2003</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="F91" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G91" s="1">
+        <v>6521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E92" s="1">
         <v>2006</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="F92" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92" s="1">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E93" s="1">
         <v>2007</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="F93" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93" s="1">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="E94" s="1">
         <v>2011</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="F94" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94" s="1">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E95" s="1">
         <v>2000</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="F95" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95" s="1">
+        <v>10298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="E96" s="1">
         <v>2006</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="F96" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G96" s="1">
+        <v>8791</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E97" s="1">
         <v>2007</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="F97" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97" s="1">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E98" s="1">
         <v>2010</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="F98" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G98" s="1">
+        <v>14736</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="E99" s="1">
         <v>2007</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="F99" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G99" s="1">
+        <v>10207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E100" s="1">
         <v>2008</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="F100" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G100" s="1">
+        <v>13533</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="E101" s="1">
         <v>2000</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="F101" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101" s="1">
+        <v>10643</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="E102" s="1">
         <v>1992</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="F102" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G102" s="1">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E103" s="1">
         <v>2002</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="F103" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G103" s="1">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E104" s="1">
         <v>2004</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="F104" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104" s="1">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="E105" s="1">
         <v>2007</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="F105" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G105" s="1">
+        <v>11892</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="E106" s="1">
         <v>2011</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="F106" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G106" s="1">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E107" s="1">
         <v>2004</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="F107" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G107" s="1">
+        <v>9774</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="E108" s="1">
         <v>2010</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="F108" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G108" s="1">
+        <v>14619</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E109" s="1">
         <v>1991</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="F109" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G109" s="1">
+        <v>11259</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="E110" s="1">
         <v>1998</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="F110" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G110" s="1">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="E111" s="1">
         <v>2001</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="F111" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G111" s="1">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="E112" s="1">
         <v>2004</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="F112" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G112" s="1">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E113" s="1">
         <v>2010</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="F113" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113" s="1">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E114" s="1">
         <v>2002</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="F114" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G114" s="1">
+        <v>14008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E115" s="1">
         <v>2002</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="F115" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G115" s="1">
+        <v>13869</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E116" s="1">
         <v>2004</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="F116" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G116" s="1">
+        <v>12325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E117" s="1">
         <v>2007</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="F117" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G117" s="1">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E118" s="1">
         <v>1999</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="F118" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G118" s="1">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="E119" s="1">
         <v>2002</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="F119" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G119" s="1">
+        <v>10248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E120" s="1">
         <v>2005</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="F120" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G120" s="1">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E121" s="1">
         <v>1977</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="F121" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G121" s="1">
+        <v>8497</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E122" s="1">
         <v>1980</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="F122" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G122" s="1">
+        <v>10545</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E123" s="1">
         <v>1983</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="F123" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G123" s="1">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E124" s="1">
         <v>2011</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="F124" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G124" s="1">
+        <v>14280</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="E125" s="1">
         <v>2009</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="F125" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G125" s="1">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E126" s="1">
         <v>1984</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="F126" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G126" s="1">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="E127" s="1">
         <v>1991</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="F127" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G127" s="1">
+        <v>7541</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="E128" s="1">
         <v>2003</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="F128" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G128" s="1">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="E129" s="1">
         <v>2012</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="F129" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G129" s="1">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E130" s="1">
         <v>2001</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="F130" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G130" s="1">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="2">
+        <f t="shared" ref="D131:D140" ca="1" si="2">RANDBETWEEN(25,125)</f>
+        <v>89</v>
+      </c>
+      <c r="E131" s="1">
         <v>2004</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="F131" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G131" s="1">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="E132" s="1">
         <v>2000</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="F132" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G132" s="1">
+        <v>7916</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E133" s="1">
         <v>2003</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="F133" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G133" s="1">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E134" s="1">
         <v>2006</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="F134" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G134" s="1">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="E135" s="1">
         <v>2005</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="F135" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G135" s="1">
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E136" s="1">
         <v>2004</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="F136" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G136" s="1">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="E137" s="1">
         <v>2008</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="F137" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G137" s="1">
+        <v>14135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="E138" s="1">
         <v>2013</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="F138" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G138" s="1">
+        <v>10355</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="E139" s="1">
         <v>2012</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="F139" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G139" s="1">
+        <v>8862</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="E140" s="1">
         <v>2013</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="F140" s="2" t="s">
         <v>381</v>
+      </c>
+      <c r="G140" s="1">
+        <v>8377</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Peliculas.xlsx
+++ b/Peliculas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\Visual Studio 2017\Projects\TPFINAL_Craicnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\Craicnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11BF9A0-E0E9-4186-8714-24A4A35B62D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64564A7F-D827-4323-ADBA-BA91B58AE833}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="11400" xr2:uid="{92B69471-29E9-4ABA-B2BA-39A2857B8C54}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="386">
   <si>
     <t>Nombre</t>
   </si>
@@ -1183,6 +1183,12 @@
   </si>
   <si>
     <t>Precio</t>
+  </si>
+  <si>
+    <t>Sinopsis</t>
+  </si>
+  <si>
+    <t>Año 2154. Jake Sully (Sam Worthington), un ex-marine condenado a vivir en una silla de ruedas, sigue siendo, a pesar de ello, un auténtico guerrero. Precisamente por ello ha sido designado para ir a Pandora, donde algunas empresas están extrayendo un mineral extraño que podría resolver la crisis energética de la Tierra. Para contrarrestar la toxicidad de la atmósfera de Pandora, se ha creado el programa Avatar, gracias al cual los seres humanos mantienen sus conciencias unidas a un avatar: un cuerpo biológico controlado de forma remota que puede sobrevivir en el aire letal. Esos cuerpos han sido creados con ADN humano, mezclado con ADN de los nativos de Pandora, los Na'vi. Convertido en avatar, Jake puede caminar otra vez. Su misión consiste en infiltrarse entre los Na'vi, que se han convertido en el mayor obstáculo para la extracción del mineral. Pero cuando Neytiri, una bella Na'vi (Zoe Saldana), salva la vida de Jake, todo cambia: Jake, tras superar ciertas pruebas, es admitido en su clan. Mientras tanto, los hombres esperan los resultados de la misión de Jake.</t>
   </si>
 </sst>
 </file>
@@ -1238,12 +1244,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521ACE5D-A237-47D3-9C9E-7CFC76E0F688}">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,9 +1578,10 @@
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1595,8 +1603,11 @@
       <c r="G1" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1619,7 @@
       </c>
       <c r="D2" s="2">
         <f ca="1">RANDBETWEEN(25,125)</f>
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1">
         <v>2006</v>
@@ -1619,8 +1630,11 @@
       <c r="G2" s="1">
         <v>12260</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1632,7 +1646,7 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(25,125)</f>
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1">
         <v>2008</v>
@@ -1643,8 +1657,11 @@
       <c r="G3" s="1">
         <v>5390</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1673,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1">
         <v>2012</v>
@@ -1667,8 +1684,11 @@
       <c r="G4" s="1">
         <v>8221</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1680,7 +1700,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1">
         <v>2015</v>
@@ -1691,8 +1711,11 @@
       <c r="G5" s="1">
         <v>2594</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1704,7 +1727,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1">
         <v>2009</v>
@@ -1715,8 +1738,11 @@
       <c r="G6" s="1">
         <v>4540</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1728,7 +1754,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1">
         <v>2007</v>
@@ -1739,8 +1765,11 @@
       <c r="G7" s="1">
         <v>11917</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1752,17 +1781,22 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1">
         <v>1999</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="G8" s="1">
         <v>6339</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1774,7 +1808,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1">
         <v>1992</v>
@@ -1785,8 +1819,11 @@
       <c r="G9" s="1">
         <v>3837</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1798,7 +1835,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1">
         <v>2006</v>
@@ -1809,8 +1846,11 @@
       <c r="G10" s="1">
         <v>2110</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1822,7 +1862,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1">
         <v>1997</v>
@@ -1833,8 +1873,11 @@
       <c r="G11" s="1">
         <v>4545</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1846,7 +1889,7 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1">
         <v>1982</v>
@@ -1857,8 +1900,11 @@
       <c r="G12" s="1">
         <v>11738</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1870,7 +1916,7 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1">
         <v>1979</v>
@@ -1881,8 +1927,11 @@
       <c r="G13" s="1">
         <v>14042</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1894,7 +1943,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1">
         <v>2012</v>
@@ -1905,8 +1954,11 @@
       <c r="G14" s="1">
         <v>5092</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1918,7 +1970,7 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1">
         <v>2009</v>
@@ -1929,8 +1981,11 @@
       <c r="G15" s="1">
         <v>11255</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1942,7 +1997,7 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="1">
         <v>2008</v>
@@ -1953,8 +2008,11 @@
       <c r="G16" s="1">
         <v>10203</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1966,7 +2024,7 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1">
         <v>2005</v>
@@ -1977,8 +2035,11 @@
       <c r="G17" s="1">
         <v>2237</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1990,7 +2051,7 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1">
         <v>2003</v>
@@ -2001,8 +2062,11 @@
       <c r="G18" s="1">
         <v>5104</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -2014,7 +2078,7 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
         <v>2010</v>
@@ -2025,8 +2089,11 @@
       <c r="G19" s="1">
         <v>7266</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -2038,7 +2105,7 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1">
         <v>2006</v>
@@ -2049,8 +2116,11 @@
       <c r="G20" s="1">
         <v>6114</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -2062,7 +2132,7 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1">
         <v>2011</v>
@@ -2073,8 +2143,11 @@
       <c r="G21" s="1">
         <v>11936</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -2086,7 +2159,7 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1">
         <v>1942</v>
@@ -2097,8 +2170,11 @@
       <c r="G22" s="1">
         <v>13928</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -2110,7 +2186,7 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1">
         <v>1976</v>
@@ -2121,8 +2197,11 @@
       <c r="G23" s="1">
         <v>1614</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -2134,7 +2213,7 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1">
         <v>1950</v>
@@ -2145,8 +2224,11 @@
       <c r="G24" s="1">
         <v>1508</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
@@ -2158,7 +2240,7 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E25" s="1">
         <v>2003</v>
@@ -2169,8 +2251,11 @@
       <c r="G25" s="1">
         <v>13990</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -2182,7 +2267,7 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="E26" s="1">
         <v>2008</v>
@@ -2193,8 +2278,11 @@
       <c r="G26" s="1">
         <v>8547</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
@@ -2206,7 +2294,7 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E27" s="1">
         <v>2006</v>
@@ -2217,8 +2305,11 @@
       <c r="G27" s="1">
         <v>12659</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -2230,7 +2321,7 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1">
         <v>1997</v>
@@ -2241,8 +2332,11 @@
       <c r="G28" s="1">
         <v>1553</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -2254,7 +2348,7 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E29" s="1">
         <v>2003</v>
@@ -2265,8 +2359,11 @@
       <c r="G29" s="1">
         <v>2178</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -2278,7 +2375,7 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1">
         <v>1982</v>
@@ -2289,8 +2386,11 @@
       <c r="G30" s="1">
         <v>12127</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
@@ -2302,7 +2402,7 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="E31" s="1">
         <v>2008</v>
@@ -2313,8 +2413,11 @@
       <c r="G31" s="1">
         <v>10709</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -2326,7 +2429,7 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E32" s="1">
         <v>2013</v>
@@ -2337,8 +2440,11 @@
       <c r="G32" s="1">
         <v>8245</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>102</v>
       </c>
@@ -2350,7 +2456,7 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="E33" s="1">
         <v>1996</v>
@@ -2361,8 +2467,11 @@
       <c r="G33" s="1">
         <v>14768</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
@@ -2374,7 +2483,7 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E34" s="1">
         <v>2005</v>
@@ -2385,8 +2494,11 @@
       <c r="G34" s="1">
         <v>14975</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>109</v>
       </c>
@@ -2398,7 +2510,7 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1">
         <v>2007</v>
@@ -2409,8 +2521,11 @@
       <c r="G35" s="1">
         <v>13258</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
@@ -2422,7 +2537,7 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E36" s="1">
         <v>1996</v>
@@ -2433,8 +2548,11 @@
       <c r="G36" s="1">
         <v>3056</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
@@ -2446,7 +2564,7 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E37" s="1">
         <v>2001</v>
@@ -2457,8 +2575,11 @@
       <c r="G37" s="1">
         <v>2295</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
@@ -2470,7 +2591,7 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E38" s="1">
         <v>2007</v>
@@ -2481,8 +2602,11 @@
       <c r="G38" s="1">
         <v>4458</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>120</v>
       </c>
@@ -2494,7 +2618,7 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="E39" s="1">
         <v>2002</v>
@@ -2505,8 +2629,11 @@
       <c r="G39" s="1">
         <v>12746</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>124</v>
       </c>
@@ -2518,7 +2645,7 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1">
         <v>2007</v>
@@ -2529,8 +2656,11 @@
       <c r="G40" s="1">
         <v>8232</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>127</v>
       </c>
@@ -2542,7 +2672,7 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1">
         <v>2009</v>
@@ -2553,8 +2683,11 @@
       <c r="G41" s="1">
         <v>1815</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>130</v>
       </c>
@@ -2566,7 +2699,7 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E42" s="1">
         <v>2013</v>
@@ -2577,8 +2710,11 @@
       <c r="G42" s="1">
         <v>2206</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>131</v>
       </c>
@@ -2590,7 +2726,7 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E43" s="1">
         <v>2008</v>
@@ -2601,8 +2737,11 @@
       <c r="G43" s="1">
         <v>11394</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>134</v>
       </c>
@@ -2614,7 +2753,7 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="E44" s="1">
         <v>2006</v>
@@ -2625,8 +2764,11 @@
       <c r="G44" s="1">
         <v>12530</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>147</v>
       </c>
@@ -2638,7 +2780,7 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E45" s="1">
         <v>2001</v>
@@ -2649,8 +2791,11 @@
       <c r="G45" s="1">
         <v>13768</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>148</v>
       </c>
@@ -2662,7 +2807,7 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1">
         <v>2002</v>
@@ -2673,8 +2818,11 @@
       <c r="G46" s="1">
         <v>5681</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>149</v>
       </c>
@@ -2686,7 +2834,7 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E47" s="1">
         <v>2004</v>
@@ -2697,8 +2845,11 @@
       <c r="G47" s="1">
         <v>4812</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>150</v>
       </c>
@@ -2710,7 +2861,7 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E48" s="1">
         <v>2005</v>
@@ -2721,8 +2872,11 @@
       <c r="G48" s="1">
         <v>2748</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>151</v>
       </c>
@@ -2734,7 +2888,7 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="E49" s="1">
         <v>2007</v>
@@ -2745,8 +2899,11 @@
       <c r="G49" s="1">
         <v>9412</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>152</v>
       </c>
@@ -2758,7 +2915,7 @@
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E50" s="1">
         <v>2009</v>
@@ -2769,8 +2926,11 @@
       <c r="G50" s="1">
         <v>10470</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -2782,7 +2942,7 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E51" s="1">
         <v>2010</v>
@@ -2793,8 +2953,11 @@
       <c r="G51" s="1">
         <v>6874</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>154</v>
       </c>
@@ -2806,7 +2969,7 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E52" s="1">
         <v>2010</v>
@@ -2817,8 +2980,11 @@
       <c r="G52" s="1">
         <v>13446</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>155</v>
       </c>
@@ -2830,7 +2996,7 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E53" s="1">
         <v>2007</v>
@@ -2841,8 +3007,11 @@
       <c r="G53" s="1">
         <v>6021</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>158</v>
       </c>
@@ -2854,7 +3023,7 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="E54" s="1">
         <v>2004</v>
@@ -2865,8 +3034,11 @@
       <c r="G54" s="1">
         <v>7904</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>161</v>
       </c>
@@ -2878,7 +3050,7 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E55" s="1">
         <v>2002</v>
@@ -2889,8 +3061,11 @@
       <c r="G55" s="1">
         <v>14509</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>164</v>
       </c>
@@ -2902,7 +3077,7 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E56" s="1">
         <v>2006</v>
@@ -2913,8 +3088,11 @@
       <c r="G56" s="1">
         <v>6835</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>167</v>
       </c>
@@ -2926,7 +3104,7 @@
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E57" s="1">
         <v>2009</v>
@@ -2937,8 +3115,11 @@
       <c r="G57" s="1">
         <v>9717</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>169</v>
       </c>
@@ -2950,7 +3131,7 @@
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E58" s="1">
         <v>2012</v>
@@ -2961,8 +3142,11 @@
       <c r="G58" s="1">
         <v>11902</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>172</v>
       </c>
@@ -2974,7 +3158,7 @@
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E59" s="1">
         <v>2014</v>
@@ -2985,8 +3169,11 @@
       <c r="G59" s="1">
         <v>10811</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
@@ -2998,7 +3185,7 @@
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="E60" s="1">
         <v>2008</v>
@@ -3009,8 +3196,11 @@
       <c r="G60" s="1">
         <v>3633</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>177</v>
       </c>
@@ -3022,7 +3212,7 @@
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E61" s="1">
         <v>2003</v>
@@ -3033,8 +3223,11 @@
       <c r="G61" s="1">
         <v>12529</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -3046,7 +3239,7 @@
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E62" s="1">
         <v>2004</v>
@@ -3057,8 +3250,11 @@
       <c r="G62" s="1">
         <v>5437</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>182</v>
       </c>
@@ -3070,7 +3266,7 @@
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E63" s="1">
         <v>2008</v>
@@ -3081,8 +3277,11 @@
       <c r="G63" s="1">
         <v>8908</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>186</v>
       </c>
@@ -3094,7 +3293,7 @@
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E64" s="1">
         <v>2006</v>
@@ -3105,8 +3304,11 @@
       <c r="G64" s="1">
         <v>6975</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>188</v>
       </c>
@@ -3118,7 +3320,7 @@
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E65" s="1">
         <v>2013</v>
@@ -3129,8 +3331,11 @@
       <c r="G65" s="1">
         <v>14526</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>191</v>
       </c>
@@ -3142,7 +3347,7 @@
       </c>
       <c r="D66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E66" s="1">
         <v>2001</v>
@@ -3153,8 +3358,11 @@
       <c r="G66" s="1">
         <v>3444</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>194</v>
       </c>
@@ -3166,7 +3374,7 @@
       </c>
       <c r="D67" s="2">
         <f t="shared" ref="D67:D130" ca="1" si="1">RANDBETWEEN(25,125)</f>
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="E67" s="1">
         <v>2002</v>
@@ -3177,8 +3385,11 @@
       <c r="G67" s="1">
         <v>7223</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>196</v>
       </c>
@@ -3190,7 +3401,7 @@
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E68" s="1">
         <v>2003</v>
@@ -3201,8 +3412,11 @@
       <c r="G68" s="1">
         <v>6222</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>197</v>
       </c>
@@ -3214,7 +3428,7 @@
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="E69" s="1">
         <v>1999</v>
@@ -3225,8 +3439,11 @@
       <c r="G69" s="1">
         <v>10022</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>200</v>
       </c>
@@ -3238,7 +3455,7 @@
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E70" s="1">
         <v>2003</v>
@@ -3249,8 +3466,11 @@
       <c r="G70" s="1">
         <v>6847</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>202</v>
       </c>
@@ -3262,7 +3482,7 @@
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E71" s="1">
         <v>2003</v>
@@ -3273,8 +3493,11 @@
       <c r="G71" s="1">
         <v>12972</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>204</v>
       </c>
@@ -3286,7 +3509,7 @@
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="E72" s="1">
         <v>1964</v>
@@ -3297,8 +3520,11 @@
       <c r="G72" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>207</v>
       </c>
@@ -3310,7 +3536,7 @@
       </c>
       <c r="D73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E73" s="1">
         <v>2008</v>
@@ -3321,8 +3547,11 @@
       <c r="G73" s="1">
         <v>7997</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>210</v>
       </c>
@@ -3334,7 +3563,7 @@
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="E74" s="1">
         <v>1996</v>
@@ -3345,8 +3574,11 @@
       <c r="G74" s="1">
         <v>8871</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>213</v>
       </c>
@@ -3358,7 +3590,7 @@
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="E75" s="1">
         <v>2000</v>
@@ -3369,8 +3601,11 @@
       <c r="G75" s="1">
         <v>5301</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>216</v>
       </c>
@@ -3382,7 +3617,7 @@
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E76" s="1">
         <v>2006</v>
@@ -3393,8 +3628,11 @@
       <c r="G76" s="1">
         <v>2525</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>219</v>
       </c>
@@ -3417,8 +3655,11 @@
       <c r="G77" s="1">
         <v>7345</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>222</v>
       </c>
@@ -3430,7 +3671,7 @@
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="E78" s="1">
         <v>2001</v>
@@ -3441,8 +3682,11 @@
       <c r="G78" s="1">
         <v>7850</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>224</v>
       </c>
@@ -3454,7 +3698,7 @@
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="E79" s="1">
         <v>2013</v>
@@ -3465,8 +3709,11 @@
       <c r="G79" s="1">
         <v>12866</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>227</v>
       </c>
@@ -3478,7 +3725,7 @@
       </c>
       <c r="D80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E80" s="1">
         <v>2005</v>
@@ -3489,8 +3736,11 @@
       <c r="G80" s="1">
         <v>9618</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>230</v>
       </c>
@@ -3502,7 +3752,7 @@
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E81" s="1">
         <v>1998</v>
@@ -3513,8 +3763,11 @@
       <c r="G81" s="1">
         <v>9934</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>233</v>
       </c>
@@ -3526,7 +3779,7 @@
       </c>
       <c r="D82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E82" s="1">
         <v>2012</v>
@@ -3537,8 +3790,11 @@
       <c r="G82" s="1">
         <v>4309</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>236</v>
       </c>
@@ -3550,7 +3806,7 @@
       </c>
       <c r="D83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E83" s="1">
         <v>2009</v>
@@ -3561,8 +3817,11 @@
       <c r="G83" s="1">
         <v>8467</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>239</v>
       </c>
@@ -3574,7 +3833,7 @@
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="E84" s="1">
         <v>2013</v>
@@ -3585,8 +3844,11 @@
       <c r="G84" s="1">
         <v>12673</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>242</v>
       </c>
@@ -3598,7 +3860,7 @@
       </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E85" s="1">
         <v>2001</v>
@@ -3609,8 +3871,11 @@
       <c r="G85" s="1">
         <v>1776</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>246</v>
       </c>
@@ -3622,7 +3887,7 @@
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="E86" s="1">
         <v>2004</v>
@@ -3633,8 +3898,11 @@
       <c r="G86" s="1">
         <v>7883</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>248</v>
       </c>
@@ -3646,7 +3914,7 @@
       </c>
       <c r="D87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E87" s="1">
         <v>2007</v>
@@ -3657,8 +3925,11 @@
       <c r="G87" s="1">
         <v>14245</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>250</v>
       </c>
@@ -3670,7 +3941,7 @@
       </c>
       <c r="D88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E88" s="1">
         <v>2007</v>
@@ -3681,8 +3952,11 @@
       <c r="G88" s="1">
         <v>1798</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>253</v>
       </c>
@@ -3694,7 +3968,7 @@
       </c>
       <c r="D89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="E89" s="1">
         <v>2001</v>
@@ -3705,8 +3979,11 @@
       <c r="G89" s="1">
         <v>6766</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>256</v>
       </c>
@@ -3718,7 +3995,7 @@
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E90" s="1">
         <v>2012</v>
@@ -3729,8 +4006,11 @@
       <c r="G90" s="1">
         <v>11714</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>258</v>
       </c>
@@ -3742,7 +4022,7 @@
       </c>
       <c r="D91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E91" s="1">
         <v>2003</v>
@@ -3753,8 +4033,11 @@
       <c r="G91" s="1">
         <v>6521</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>261</v>
       </c>
@@ -3766,7 +4049,7 @@
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E92" s="1">
         <v>2006</v>
@@ -3777,8 +4060,11 @@
       <c r="G92" s="1">
         <v>1972</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>263</v>
       </c>
@@ -3790,7 +4076,7 @@
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E93" s="1">
         <v>2007</v>
@@ -3801,8 +4087,11 @@
       <c r="G93" s="1">
         <v>8496</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>265</v>
       </c>
@@ -3814,7 +4103,7 @@
       </c>
       <c r="D94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="E94" s="1">
         <v>2011</v>
@@ -3825,8 +4114,11 @@
       <c r="G94" s="1">
         <v>2201</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>268</v>
       </c>
@@ -3838,7 +4130,7 @@
       </c>
       <c r="D95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E95" s="1">
         <v>2000</v>
@@ -3849,8 +4141,11 @@
       <c r="G95" s="1">
         <v>10298</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>271</v>
       </c>
@@ -3862,7 +4157,7 @@
       </c>
       <c r="D96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E96" s="1">
         <v>2006</v>
@@ -3873,8 +4168,11 @@
       <c r="G96" s="1">
         <v>8791</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>274</v>
       </c>
@@ -3886,7 +4184,7 @@
       </c>
       <c r="D97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E97" s="1">
         <v>2007</v>
@@ -3897,8 +4195,11 @@
       <c r="G97" s="1">
         <v>2676</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>277</v>
       </c>
@@ -3910,7 +4211,7 @@
       </c>
       <c r="D98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="E98" s="1">
         <v>2010</v>
@@ -3921,8 +4222,11 @@
       <c r="G98" s="1">
         <v>14736</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>279</v>
       </c>
@@ -3934,7 +4238,7 @@
       </c>
       <c r="D99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E99" s="1">
         <v>2007</v>
@@ -3945,8 +4249,11 @@
       <c r="G99" s="1">
         <v>10207</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>281</v>
       </c>
@@ -3958,7 +4265,7 @@
       </c>
       <c r="D100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E100" s="1">
         <v>2008</v>
@@ -3969,8 +4276,11 @@
       <c r="G100" s="1">
         <v>13533</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>284</v>
       </c>
@@ -3982,7 +4292,7 @@
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E101" s="1">
         <v>2000</v>
@@ -3993,8 +4303,11 @@
       <c r="G101" s="1">
         <v>10643</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>287</v>
       </c>
@@ -4006,7 +4319,7 @@
       </c>
       <c r="D102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="E102" s="1">
         <v>1992</v>
@@ -4017,8 +4330,11 @@
       <c r="G102" s="1">
         <v>5712</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>289</v>
       </c>
@@ -4030,7 +4346,7 @@
       </c>
       <c r="D103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E103" s="1">
         <v>2002</v>
@@ -4041,8 +4357,11 @@
       <c r="G103" s="1">
         <v>7232</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>292</v>
       </c>
@@ -4054,7 +4373,7 @@
       </c>
       <c r="D104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="E104" s="1">
         <v>2004</v>
@@ -4065,8 +4384,11 @@
       <c r="G104" s="1">
         <v>2256</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>295</v>
       </c>
@@ -4078,7 +4400,7 @@
       </c>
       <c r="D105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="E105" s="1">
         <v>2007</v>
@@ -4089,8 +4411,11 @@
       <c r="G105" s="1">
         <v>11892</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>298</v>
       </c>
@@ -4102,7 +4427,7 @@
       </c>
       <c r="D106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E106" s="1">
         <v>2011</v>
@@ -4113,8 +4438,11 @@
       <c r="G106" s="1">
         <v>5495</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>300</v>
       </c>
@@ -4126,7 +4454,7 @@
       </c>
       <c r="D107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="E107" s="1">
         <v>2004</v>
@@ -4137,8 +4465,11 @@
       <c r="G107" s="1">
         <v>9774</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>302</v>
       </c>
@@ -4150,7 +4481,7 @@
       </c>
       <c r="D108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="E108" s="1">
         <v>2010</v>
@@ -4161,8 +4492,11 @@
       <c r="G108" s="1">
         <v>14619</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>303</v>
       </c>
@@ -4174,7 +4508,7 @@
       </c>
       <c r="D109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E109" s="1">
         <v>1991</v>
@@ -4185,8 +4519,11 @@
       <c r="G109" s="1">
         <v>11259</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>306</v>
       </c>
@@ -4198,7 +4535,7 @@
       </c>
       <c r="D110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="E110" s="1">
         <v>1998</v>
@@ -4209,8 +4546,11 @@
       <c r="G110" s="1">
         <v>3569</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>309</v>
       </c>
@@ -4222,7 +4562,7 @@
       </c>
       <c r="D111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="E111" s="1">
         <v>2001</v>
@@ -4233,8 +4573,11 @@
       <c r="G111" s="1">
         <v>2073</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>312</v>
       </c>
@@ -4246,7 +4589,7 @@
       </c>
       <c r="D112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E112" s="1">
         <v>2004</v>
@@ -4257,8 +4600,11 @@
       <c r="G112" s="1">
         <v>4049</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>314</v>
       </c>
@@ -4281,8 +4627,11 @@
       <c r="G113" s="1">
         <v>11800</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>317</v>
       </c>
@@ -4294,7 +4643,7 @@
       </c>
       <c r="D114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E114" s="1">
         <v>2002</v>
@@ -4305,8 +4654,11 @@
       <c r="G114" s="1">
         <v>14008</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>319</v>
       </c>
@@ -4318,7 +4670,7 @@
       </c>
       <c r="D115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E115" s="1">
         <v>2002</v>
@@ -4329,8 +4681,11 @@
       <c r="G115" s="1">
         <v>13869</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>322</v>
       </c>
@@ -4342,7 +4697,7 @@
       </c>
       <c r="D116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E116" s="1">
         <v>2004</v>
@@ -4353,8 +4708,11 @@
       <c r="G116" s="1">
         <v>12325</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>324</v>
       </c>
@@ -4366,7 +4724,7 @@
       </c>
       <c r="D117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E117" s="1">
         <v>2007</v>
@@ -4377,8 +4735,11 @@
       <c r="G117" s="1">
         <v>2649</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>326</v>
       </c>
@@ -4390,7 +4751,7 @@
       </c>
       <c r="D118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E118" s="1">
         <v>1999</v>
@@ -4401,8 +4762,11 @@
       <c r="G118" s="1">
         <v>11990</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>329</v>
       </c>
@@ -4414,7 +4778,7 @@
       </c>
       <c r="D119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E119" s="1">
         <v>2002</v>
@@ -4425,8 +4789,11 @@
       <c r="G119" s="1">
         <v>10248</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>331</v>
       </c>
@@ -4438,7 +4805,7 @@
       </c>
       <c r="D120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E120" s="1">
         <v>2005</v>
@@ -4449,8 +4816,11 @@
       <c r="G120" s="1">
         <v>5149</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>333</v>
       </c>
@@ -4462,7 +4832,7 @@
       </c>
       <c r="D121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E121" s="1">
         <v>1977</v>
@@ -4473,8 +4843,11 @@
       <c r="G121" s="1">
         <v>8497</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>335</v>
       </c>
@@ -4486,7 +4859,7 @@
       </c>
       <c r="D122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E122" s="1">
         <v>1980</v>
@@ -4497,8 +4870,11 @@
       <c r="G122" s="1">
         <v>10545</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>338</v>
       </c>
@@ -4510,7 +4886,7 @@
       </c>
       <c r="D123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E123" s="1">
         <v>1983</v>
@@ -4521,8 +4897,11 @@
       <c r="G123" s="1">
         <v>12990</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>340</v>
       </c>
@@ -4534,7 +4913,7 @@
       </c>
       <c r="D124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E124" s="1">
         <v>2011</v>
@@ -4545,8 +4924,11 @@
       <c r="G124" s="1">
         <v>14280</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>342</v>
       </c>
@@ -4558,7 +4940,7 @@
       </c>
       <c r="D125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E125" s="1">
         <v>2009</v>
@@ -4569,8 +4951,11 @@
       <c r="G125" s="1">
         <v>4114</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>344</v>
       </c>
@@ -4582,7 +4967,7 @@
       </c>
       <c r="D126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E126" s="1">
         <v>1984</v>
@@ -4593,8 +4978,11 @@
       <c r="G126" s="1">
         <v>6500</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>346</v>
       </c>
@@ -4606,7 +4994,7 @@
       </c>
       <c r="D127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="E127" s="1">
         <v>1991</v>
@@ -4617,8 +5005,11 @@
       <c r="G127" s="1">
         <v>7541</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>348</v>
       </c>
@@ -4630,7 +5021,7 @@
       </c>
       <c r="D128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E128" s="1">
         <v>2003</v>
@@ -4641,8 +5032,11 @@
       <c r="G128" s="1">
         <v>2293</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>351</v>
       </c>
@@ -4654,7 +5048,7 @@
       </c>
       <c r="D129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="E129" s="1">
         <v>2012</v>
@@ -4665,8 +5059,11 @@
       <c r="G129" s="1">
         <v>4138</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>354</v>
       </c>
@@ -4678,7 +5075,7 @@
       </c>
       <c r="D130" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E130" s="1">
         <v>2001</v>
@@ -4689,8 +5086,11 @@
       <c r="G130" s="1">
         <v>7603</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>357</v>
       </c>
@@ -4702,7 +5102,7 @@
       </c>
       <c r="D131" s="2">
         <f t="shared" ref="D131:D140" ca="1" si="2">RANDBETWEEN(25,125)</f>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E131" s="1">
         <v>2004</v>
@@ -4713,8 +5113,11 @@
       <c r="G131" s="1">
         <v>5219</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>359</v>
       </c>
@@ -4726,7 +5129,7 @@
       </c>
       <c r="D132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="E132" s="1">
         <v>2000</v>
@@ -4737,8 +5140,11 @@
       <c r="G132" s="1">
         <v>7916</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>361</v>
       </c>
@@ -4750,7 +5156,7 @@
       </c>
       <c r="D133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="E133" s="1">
         <v>2003</v>
@@ -4761,8 +5167,11 @@
       <c r="G133" s="1">
         <v>6721</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>364</v>
       </c>
@@ -4774,7 +5183,7 @@
       </c>
       <c r="D134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="E134" s="1">
         <v>2006</v>
@@ -4785,8 +5194,11 @@
       <c r="G134" s="1">
         <v>4472</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>366</v>
       </c>
@@ -4798,7 +5210,7 @@
       </c>
       <c r="D135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E135" s="1">
         <v>2005</v>
@@ -4809,8 +5221,11 @@
       <c r="G135" s="1">
         <v>5788</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>369</v>
       </c>
@@ -4822,7 +5237,7 @@
       </c>
       <c r="D136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E136" s="1">
         <v>2004</v>
@@ -4833,8 +5248,11 @@
       <c r="G136" s="1">
         <v>4646</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>372</v>
       </c>
@@ -4846,7 +5264,7 @@
       </c>
       <c r="D137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="E137" s="1">
         <v>2008</v>
@@ -4857,8 +5275,11 @@
       <c r="G137" s="1">
         <v>14135</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>375</v>
       </c>
@@ -4870,7 +5291,7 @@
       </c>
       <c r="D138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E138" s="1">
         <v>2013</v>
@@ -4881,8 +5302,11 @@
       <c r="G138" s="1">
         <v>10355</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>377</v>
       </c>
@@ -4894,7 +5318,7 @@
       </c>
       <c r="D139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E139" s="1">
         <v>2012</v>
@@ -4905,8 +5329,11 @@
       <c r="G139" s="1">
         <v>8862</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>380</v>
       </c>
@@ -4918,7 +5345,7 @@
       </c>
       <c r="D140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E140" s="1">
         <v>2013</v>
@@ -4928,6 +5355,9 @@
       </c>
       <c r="G140" s="1">
         <v>8377</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Peliculas.xlsx
+++ b/Peliculas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\Craicnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumnos.ALUMNOS\Downloads\Craicnet-Craicnet\Craicnet-Craicnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64564A7F-D827-4323-ADBA-BA91B58AE833}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="11400" xr2:uid="{92B69471-29E9-4ABA-B2BA-39A2857B8C54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="385">
   <si>
     <t>Nombre</t>
   </si>
@@ -161,9 +160,6 @@
     <t>Apocalypse Now</t>
   </si>
   <si>
-    <t>Krieg</t>
-  </si>
-  <si>
     <t>Francis Ford Coppola</t>
   </si>
   <si>
@@ -339,9 +335,6 @@
   </si>
   <si>
     <t>Emma</t>
-  </si>
-  <si>
-    <t>Komödie</t>
   </si>
   <si>
     <t>Douglas McGrath</t>
@@ -1189,12 +1182,15 @@
   </si>
   <si>
     <t>Año 2154. Jake Sully (Sam Worthington), un ex-marine condenado a vivir en una silla de ruedas, sigue siendo, a pesar de ello, un auténtico guerrero. Precisamente por ello ha sido designado para ir a Pandora, donde algunas empresas están extrayendo un mineral extraño que podría resolver la crisis energética de la Tierra. Para contrarrestar la toxicidad de la atmósfera de Pandora, se ha creado el programa Avatar, gracias al cual los seres humanos mantienen sus conciencias unidas a un avatar: un cuerpo biológico controlado de forma remota que puede sobrevivir en el aire letal. Esos cuerpos han sido creados con ADN humano, mezclado con ADN de los nativos de Pandora, los Na'vi. Convertido en avatar, Jake puede caminar otra vez. Su misión consiste en infiltrarse entre los Na'vi, que se han convertido en el mayor obstáculo para la extracción del mineral. Pero cuando Neytiri, una bella Na'vi (Zoe Saldana), salva la vida de Jake, todo cambia: Jake, tras superar ciertas pruebas, es admitido en su clan. Mientras tanto, los hombres esperan los resultados de la misión de Jake.</t>
+  </si>
+  <si>
+    <t>War</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1255,8 +1251,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1564,11 +1588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521ACE5D-A237-47D3-9C9E-7CFC76E0F688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1601,10 +1625,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1619,7 +1643,7 @@
       </c>
       <c r="D2" s="2">
         <f ca="1">RANDBETWEEN(25,125)</f>
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1">
         <v>2006</v>
@@ -1631,7 +1655,7 @@
         <v>12260</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1646,7 +1670,7 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(25,125)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1">
         <v>2008</v>
@@ -1658,7 +1682,7 @@
         <v>5390</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1673,7 +1697,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
         <v>2012</v>
@@ -1685,7 +1709,7 @@
         <v>8221</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1700,7 +1724,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1">
         <v>2015</v>
@@ -1712,7 +1736,7 @@
         <v>2594</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1727,7 +1751,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1">
         <v>2009</v>
@@ -1739,7 +1763,7 @@
         <v>4540</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1754,7 +1778,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>2007</v>
@@ -1766,7 +1790,7 @@
         <v>11917</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1781,19 +1805,19 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1">
         <v>1999</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G8" s="1">
         <v>6339</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1808,7 +1832,7 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1">
         <v>1992</v>
@@ -1820,7 +1844,7 @@
         <v>3837</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1835,7 +1859,7 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="E10" s="1">
         <v>2006</v>
@@ -1847,7 +1871,7 @@
         <v>2110</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,7 +1886,7 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1">
         <v>1997</v>
@@ -1874,7 +1898,7 @@
         <v>4545</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1889,7 +1913,7 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1">
         <v>1982</v>
@@ -1901,7 +1925,7 @@
         <v>11738</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1909,301 +1933,301 @@
         <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1">
         <v>1979</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1">
         <v>14042</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1">
         <v>2012</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1">
         <v>5092</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1">
         <v>2009</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1">
         <v>11255</v>
       </c>
       <c r="H15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1">
         <v>2008</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1">
         <v>10203</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" s="1">
         <v>2005</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1">
         <v>2237</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1">
         <v>2003</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="1">
         <v>5104</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1">
         <v>2010</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1">
         <v>7266</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1">
         <v>2006</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="1">
         <v>6114</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1">
         <v>2011</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1">
         <v>11936</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1">
         <v>1942</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="1">
         <v>13928</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E23" s="1">
         <v>1976</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1">
         <v>1614</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
@@ -2213,1779 +2237,1779 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="E24" s="1">
         <v>1950</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="1">
         <v>1508</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1">
         <v>2003</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="1">
         <v>13990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1">
         <v>2008</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" s="1">
         <v>8547</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1">
         <v>2006</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G27" s="1">
         <v>12659</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1">
         <v>1997</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" s="1">
         <v>1553</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1">
         <v>2003</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1">
         <v>2178</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1">
         <v>1982</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G30" s="1">
         <v>12127</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1">
         <v>2008</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="1">
         <v>10709</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E32" s="1">
         <v>2013</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G32" s="1">
         <v>8245</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="E33" s="1">
         <v>1996</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G33" s="1">
         <v>14768</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="E34" s="1">
         <v>2005</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G34" s="1">
         <v>14975</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1">
         <v>2007</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G35" s="1">
         <v>13258</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E36" s="1">
         <v>1996</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G36" s="1">
         <v>3056</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E37" s="1">
         <v>2001</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G37" s="1">
         <v>2295</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E38" s="1">
         <v>2007</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G38" s="1">
         <v>4458</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E39" s="1">
         <v>2002</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G39" s="1">
         <v>12746</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E40" s="1">
         <v>2007</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G40" s="1">
         <v>8232</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E41" s="1">
         <v>2009</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G41" s="1">
         <v>1815</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E42" s="1">
         <v>2013</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G42" s="1">
         <v>2206</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E43" s="1">
         <v>2008</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G43" s="1">
         <v>11394</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1">
         <v>2006</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G44" s="1">
         <v>12530</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="E45" s="1">
         <v>2001</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G45" s="1">
         <v>13768</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="E46" s="1">
         <v>2002</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G46" s="1">
         <v>5681</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E47" s="1">
         <v>2004</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G47" s="1">
         <v>4812</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E48" s="1">
         <v>2005</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G48" s="1">
         <v>2748</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="E49" s="1">
         <v>2007</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G49" s="1">
         <v>9412</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E50" s="1">
         <v>2009</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G50" s="1">
         <v>10470</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E51" s="1">
         <v>2010</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G51" s="1">
         <v>6874</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E52" s="1">
         <v>2010</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G52" s="1">
         <v>13446</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E53" s="1">
         <v>2007</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G53" s="1">
         <v>6021</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E54" s="1">
         <v>2004</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G54" s="1">
         <v>7904</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>2002</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G55" s="1">
         <v>14509</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E56" s="1">
         <v>2006</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G56" s="1">
         <v>6835</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1">
         <v>2009</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G57" s="1">
         <v>9717</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E58" s="1">
         <v>2012</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G58" s="1">
         <v>11902</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E59" s="1">
         <v>2014</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G59" s="1">
         <v>10811</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E60" s="1">
         <v>2008</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G60" s="1">
         <v>3633</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E61" s="1">
         <v>2003</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G61" s="1">
         <v>12529</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E62" s="1">
         <v>2004</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G62" s="1">
         <v>5437</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E63" s="1">
         <v>2008</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G63" s="1">
         <v>8908</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E64" s="1">
         <v>2006</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G64" s="1">
         <v>6975</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="E65" s="1">
         <v>2013</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G65" s="1">
         <v>14526</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="E66" s="1">
         <v>2001</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G66" s="1">
         <v>3444</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" ref="D67:D130" ca="1" si="1">RANDBETWEEN(25,125)</f>
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E67" s="1">
         <v>2002</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G67" s="1">
         <v>7223</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E68" s="1">
         <v>2003</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G68" s="1">
         <v>6222</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="E69" s="1">
         <v>1999</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G69" s="1">
         <v>10022</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E70" s="1">
         <v>2003</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G70" s="1">
         <v>6847</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="E71" s="1">
         <v>2003</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G71" s="1">
         <v>12972</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E72" s="1">
         <v>1964</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G72" s="1">
         <v>2008</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E73" s="1">
         <v>2008</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G73" s="1">
         <v>7997</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="E74" s="1">
         <v>1996</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G74" s="1">
         <v>8871</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E75" s="1">
         <v>2000</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G75" s="1">
         <v>5301</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E76" s="1">
         <v>2006</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G76" s="1">
         <v>2525</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="E77" s="1">
         <v>2003</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G77" s="1">
         <v>7345</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E78" s="1">
         <v>2001</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G78" s="1">
         <v>7850</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E79" s="1">
         <v>2013</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G79" s="1">
         <v>12866</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E80" s="1">
         <v>2005</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G80" s="1">
         <v>9618</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="E81" s="1">
         <v>1998</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G81" s="1">
         <v>9934</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="E82" s="1">
         <v>2012</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G82" s="1">
         <v>4309</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E83" s="1">
         <v>2009</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G83" s="1">
         <v>8467</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="E84" s="1">
         <v>2013</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G84" s="1">
         <v>12673</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E85" s="1">
         <v>2001</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G85" s="1">
         <v>1776</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E86" s="1">
         <v>2004</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G86" s="1">
         <v>7883</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="E87" s="1">
         <v>2007</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G87" s="1">
         <v>14245</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E88" s="1">
         <v>2007</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G88" s="1">
         <v>1798</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E89" s="1">
         <v>2001</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G89" s="1">
         <v>6766</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>26</v>
@@ -3995,213 +4019,213 @@
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E90" s="1">
         <v>2012</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G90" s="1">
         <v>11714</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E91" s="1">
         <v>2003</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G91" s="1">
         <v>6521</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="E92" s="1">
         <v>2006</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G92" s="1">
         <v>1972</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E93" s="1">
         <v>2007</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G93" s="1">
         <v>8496</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E94" s="1">
         <v>2011</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G94" s="1">
         <v>2201</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E95" s="1">
         <v>2000</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G95" s="1">
         <v>10298</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E96" s="1">
         <v>2006</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G96" s="1">
         <v>8791</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E97" s="1">
         <v>2007</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G97" s="1">
         <v>2676</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>26</v>
@@ -4211,267 +4235,267 @@
       </c>
       <c r="D98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E98" s="1">
         <v>2010</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G98" s="1">
         <v>14736</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E99" s="1">
         <v>2007</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G99" s="1">
         <v>10207</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E100" s="1">
         <v>2008</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G100" s="1">
         <v>13533</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E101" s="1">
         <v>2000</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G101" s="1">
         <v>10643</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E102" s="1">
         <v>1992</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G102" s="1">
         <v>5712</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E103" s="1">
         <v>2002</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G103" s="1">
         <v>7232</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E104" s="1">
         <v>2004</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G104" s="1">
         <v>2256</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E105" s="1">
         <v>2007</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G105" s="1">
         <v>11892</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E106" s="1">
         <v>2011</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G106" s="1">
         <v>5495</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="E107" s="1">
         <v>2004</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G107" s="1">
         <v>9774</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>26</v>
@@ -4481,807 +4505,807 @@
       </c>
       <c r="D108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E108" s="1">
         <v>2010</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G108" s="1">
         <v>14619</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="E109" s="1">
         <v>1991</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G109" s="1">
         <v>11259</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E110" s="1">
         <v>1998</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G110" s="1">
         <v>3569</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E111" s="1">
         <v>2001</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G111" s="1">
         <v>2073</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E112" s="1">
         <v>2004</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G112" s="1">
         <v>4049</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E113" s="1">
         <v>2010</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G113" s="1">
         <v>11800</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E114" s="1">
         <v>2002</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G114" s="1">
         <v>14008</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E115" s="1">
         <v>2002</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G115" s="1">
         <v>13869</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E116" s="1">
         <v>2004</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G116" s="1">
         <v>12325</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E117" s="1">
         <v>2007</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G117" s="1">
         <v>2649</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E118" s="1">
         <v>1999</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G118" s="1">
         <v>11990</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="E119" s="1">
         <v>2002</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G119" s="1">
         <v>10248</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E120" s="1">
         <v>2005</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G120" s="1">
         <v>5149</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E121" s="1">
         <v>1977</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G121" s="1">
         <v>8497</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E122" s="1">
         <v>1980</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G122" s="1">
         <v>10545</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E123" s="1">
         <v>1983</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G123" s="1">
         <v>12990</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E124" s="1">
         <v>2011</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G124" s="1">
         <v>14280</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E125" s="1">
         <v>2009</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G125" s="1">
         <v>4114</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E126" s="1">
         <v>1984</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G126" s="1">
         <v>6500</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E127" s="1">
         <v>1991</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G127" s="1">
         <v>7541</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E128" s="1">
         <v>2003</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G128" s="1">
         <v>2293</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E129" s="1">
         <v>2012</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G129" s="1">
         <v>4138</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D130" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E130" s="1">
         <v>2001</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G130" s="1">
         <v>7603</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D131" s="2">
         <f t="shared" ref="D131:D140" ca="1" si="2">RANDBETWEEN(25,125)</f>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E131" s="1">
         <v>2004</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G131" s="1">
         <v>5219</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="E132" s="1">
         <v>2000</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G132" s="1">
         <v>7916</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E133" s="1">
         <v>2003</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G133" s="1">
         <v>6721</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E134" s="1">
         <v>2006</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G134" s="1">
         <v>4472</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E135" s="1">
         <v>2005</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G135" s="1">
         <v>5788</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="E136" s="1">
         <v>2004</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G136" s="1">
         <v>4646</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="E137" s="1">
         <v>2008</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G137" s="1">
         <v>14135</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>18</v>
@@ -5291,73 +5315,73 @@
       </c>
       <c r="D138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E138" s="1">
         <v>2013</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G138" s="1">
         <v>10355</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="E139" s="1">
         <v>2012</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G139" s="1">
         <v>8862</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="E140" s="1">
         <v>2013</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G140" s="1">
         <v>8377</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
